--- a/biology/Médecine/1189_en_santé_et_médecine/1189_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1189_en_santé_et_médecine/1189_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1189_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1189_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1189 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1189_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1189_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frédéric Barberousse fonde à Haguenau, en Alsace, et consacre à la Vierge et à saint Nicolas, un premier hôpital qui deviendra prieuré de prémontrés puis, en 1328, grand hôpital Saint-Martin[1].
-Fondation à Dijon en Bourgogne d'une maison-Dieu dite « Hôpital-aux-Riches » du nom de ses fondateurs, Dominique Le Riche et son frère, et conçue « principalement pour recevoir les pauvres passants et les pèlerins[2],[3] ».
-Entre Laneuville et Saint-Nicolas, près de Nancy, première mention, dans une donation de Thiéry des Rapins, de la léproserie de La Madeleine, « seule maladrerie dont on puisse constater l'existence [au XIIe siècle] d'une manière certaine  dans la partie de la Lorraine qui dépendait du diocèse de Toul[4] ».
-L'abbaye de Pontfrault est mentionnée pour la première fois comme léproserie dans un acte de donation d'Arnoul, abbé de Ferrières[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Frédéric Barberousse fonde à Haguenau, en Alsace, et consacre à la Vierge et à saint Nicolas, un premier hôpital qui deviendra prieuré de prémontrés puis, en 1328, grand hôpital Saint-Martin.
+Fondation à Dijon en Bourgogne d'une maison-Dieu dite « Hôpital-aux-Riches » du nom de ses fondateurs, Dominique Le Riche et son frère, et conçue « principalement pour recevoir les pauvres passants et les pèlerins, ».
+Entre Laneuville et Saint-Nicolas, près de Nancy, première mention, dans une donation de Thiéry des Rapins, de la léproserie de La Madeleine, « seule maladrerie dont on puisse constater l'existence [au XIIe siècle] d'une manière certaine  dans la partie de la Lorraine qui dépendait du diocèse de Toul ».
+L'abbaye de Pontfrault est mentionnée pour la première fois comme léproserie dans un acte de donation d'Arnoul, abbé de Ferrières,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1189_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1189_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Guy, filius abbonis [« fils d'Abbon »], médecin d'Arbois en Franche-Comté[7].
-Fl. Jean de Beauvais, médecin et moine de Breteuil, dans le Santerre[7].
-1146-1189 : fl. Raoul, « physicien, chanoine de Notre-Dame de Montréal-en-Auxois[8] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Guy, filius abbonis [« fils d'Abbon »], médecin d'Arbois en Franche-Comté.
+Fl. Jean de Beauvais, médecin et moine de Breteuil, dans le Santerre.
+1146-1189 : fl. Raoul, « physicien, chanoine de Notre-Dame de Montréal-en-Auxois ».</t>
         </is>
       </c>
     </row>
